--- a/data/RDI Analysis.xlsx
+++ b/data/RDI Analysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d2fd2455f6a89ea/Desktop/Python/grocery_fcst/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Documents\Python\grocery_fcst\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{07E1E590-9861-43BA-A82B-97211713CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D57BFA-F1DE-461A-9C4F-013C22A8629C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103F50AD-C0A5-4B3A-B8D2-6B1DB25F3421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1710" windowWidth="22095" windowHeight="12480" xr2:uid="{1AAC7FD9-0BDE-4822-BFEF-EDEF42530DE3}"/>
+    <workbookView xWindow="32835" yWindow="1740" windowWidth="23565" windowHeight="14610" xr2:uid="{1AAC7FD9-0BDE-4822-BFEF-EDEF42530DE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="PSAVERT" sheetId="1" r:id="rId1"/>
+    <sheet name="PSAVERT" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>observation_date</t>
   </si>
@@ -78,6 +79,21 @@
   </si>
   <si>
     <t>RDI_adj_yoy</t>
+  </si>
+  <si>
+    <t>RDI Linear</t>
+  </si>
+  <si>
+    <t>Grocery Sales</t>
+  </si>
+  <si>
+    <t>GS diff</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>decay rate</t>
   </si>
 </sst>
 </file>
@@ -702,9 +718,2018 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PSAVERT!$G$42:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>7.1874853196787214E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9387437810945318E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3940513373392758E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7398456282424424E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2716502478913316E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6088322991376671E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3825631716290809E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7338129496402575E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.348210134821004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3780449224929416E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7690371302706573E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2841722103677018E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0145649197062179E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4449442356275766E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.4514532146869854E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6215741659668668E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9161459263227218E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5125801091858726E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1201674355534319E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9354563255451538E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.7044491834886699E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.2859941091982812E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1306805827353772E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0817745287752274E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.238925407259206E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2590511948282979E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.1648615118694581E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2790452790452136E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5082889903771424E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0351478485298493E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1888124373394842E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.0756038184852628E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.5922652085131936E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1641234550852753E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.6103087717382927E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.5416695265418907E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.030762236702067E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.0808356415450424E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9194653115333082E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0904141685618214E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7773645784913139E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7860629845897229E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6515772784430069E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.5442623844706977E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.17516211113844E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.1695389297911074E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0224435481657235E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6636711985054173E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.0989918127072302E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.280563625010279E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.021209740769824E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4.9873974365849394E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.6205669936402227E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8159615641265567E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.4202366218176738E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0242508413012219E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4586588412578436E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1097880981579831E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-5.0001973762126006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-173C-46CB-8F8E-3CD5691C5B8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="361185231"/>
+        <c:axId val="361195791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361185231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361195791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361195791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361185231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PSAVERT!$C$41:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>18030.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17114.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17047.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17195.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16524.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16616.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16552.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16350.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16391.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18146.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16633.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20445.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17335.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16836.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16757.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16867.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16832.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16641.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16648.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16598.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16525.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16143.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16065.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16063.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16049.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16015.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16219.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16314.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16372.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16424.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16436.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16497.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16808.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16879.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16968</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16983.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17041.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17050.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17061.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17085.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17101.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17152.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17229.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17267.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17426.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17442.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17486.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17464.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17511.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17515.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17505</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17494.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17519.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17568.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17592.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17605.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17661.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17756.2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0">
+                  <c:v>17836.638000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-657A-485A-906E-684A2453B8E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PSAVERT!$E$41:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>16094.291990416688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15708.874889972016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16097.90917647805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15819.367022839428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16118.960221170562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16088.746925860265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16443.750916576169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16215.066521870503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16519.279888423989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16427.413774754827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16424.905582127125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16555.583470942638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16626.565043445786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16737.992773461086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16449.429177119084</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17014.251641499352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16668.081225495451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16768.124155426656</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16718.34439067313</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16872.485753544457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16892.158377786218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16835.289736582468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17050.311150684931</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16951.77404343152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17149.574296770505</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17193.498304585941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16897.782020240036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17149.796124071603</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17211.038101646624</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17317.180846531701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17251.732834246632</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17149.59999480292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17057.29772478724</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17408.881801753781</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17132.155033689152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17187.486247546229</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17262.602529474163</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17250.626432841374</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17338.07407465201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17462.766162194195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17336.798071149271</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17364.947997702689</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17418.967592203819</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17327.033015812864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17366.067643930066</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17407.938474478673</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17537.934933163222</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17580.412825944666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17405.859702117872</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17512.57667018706</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17663.54842105263</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17409.487748914034</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17676.449002371457</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17568.105191418657</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17469.080555968114</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17592.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17605.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17661.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17756.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17836.638000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-657A-485A-906E-684A2453B8E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="365411039"/>
+        <c:axId val="365412479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365411039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365412479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365412479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365411039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PSAVERT!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>14373.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14416.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14476.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14509.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14610.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14618.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14660.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14678.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14748.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14771.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14797.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14886.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14921.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14974.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15007.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15057.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15119.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15184.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15238.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15237.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15274.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15315.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15506.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15536.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15560.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15566.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15534.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15532.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15562.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15581.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15664.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15697.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15718.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15766.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15683.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15857.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15916.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15704.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18030.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17114.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17047.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17195.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16524.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16616.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16552.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16350.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16391.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18146.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16633.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20445.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17335.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16836.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16757.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16867.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16832.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16641.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16648.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16598.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16525.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16143.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16143</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16065.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16063.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16049.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16015.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16219.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16314.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16372.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16424.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16436.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16497.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16808.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16879.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16968</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16983.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17041.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17050.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17061.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17085.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17101.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17152.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17229.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17267.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17426.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17442.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17486.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17464.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17511.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17515.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17505</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17494.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17519.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17568.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17592.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17605.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17661.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17756.2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.0">
+                  <c:v>17836.638000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91C8-40A0-AA77-044490647190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PSAVERT!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>14419.011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14459.022000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14499.032999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14539.044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14579.055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14619.066000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14659.076999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14699.088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14739.099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14779.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14819.120999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14859.132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14899.143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14939.154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14979.165000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15019.175999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15059.187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15099.198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15139.209000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15179.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15219.231</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15259.242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15299.253000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15339.263999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15379.275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15419.286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15459.297</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15499.308000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15539.319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15579.33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15619.341</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15659.352000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15699.362999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15739.374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15779.385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15819.396000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15859.406999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15899.418</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15939.429</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15979.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16019.451000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16059.462</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16099.473</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16139.484</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16179.495000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16219.505999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16259.517</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16299.528</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16339.539000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16379.55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16419.561000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16459.572</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16499.582999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16539.594000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16579.605</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16619.616000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16659.627</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16699.637999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16739.649000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16779.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16819.671000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16859.682000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16899.692999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16939.704000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16979.715</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17019.725999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17059.737000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17099.748</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17139.758999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17179.77</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17219.780999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17187.792000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17208.553</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17228.813999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17248.575000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17267.835999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17286.597000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17304.858</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17322.618999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17339.88</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17356.641</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17372.902000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17388.663</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17403.923999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17418.685000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17432.946</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17446.707000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17459.968000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17472.728999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17484.990000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17496.751</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17508.011999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17518.773000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17529.034</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18180.044999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18220.056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18260.066999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18300.078000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18340.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91C8-40A0-AA77-044490647190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1324796751"/>
+        <c:axId val="1324799151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1324796751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324799151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1324799151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324796751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$698:$A$794</c:f>
+              <c:f>old!$A$698:$A$794</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1004,7 +3029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$B$698:$B$794</c:f>
+              <c:f>old!$B$698:$B$794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1342,7 +3367,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$698:$A$794</c:f>
+              <c:f>old!$A$698:$A$794</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1642,7 +3667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$D$698:$D$794</c:f>
+              <c:f>old!$D$698:$D$794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -2208,7 +4233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2275,7 +4300,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$722:$A$794</c:f>
+              <c:f>old!$A$722:$A$794</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2503,7 +4528,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$E$722:$E$770</c:f>
+              <c:f>old!$E$722:$E$770</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -2681,7 +4706,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$722:$A$794</c:f>
+              <c:f>old!$A$722:$A$794</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2909,7 +4934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$F$722:$F$770</c:f>
+              <c:f>old!$F$722:$F$770</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -3272,7 +5297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3339,7 +5364,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$722:$A$794</c:f>
+              <c:f>old!$A$722:$A$794</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -3567,7 +5592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$E$722:$E$794</c:f>
+              <c:f>old!$E$722:$E$794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -3817,7 +5842,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$722:$A$794</c:f>
+              <c:f>old!$A$722:$A$794</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -4045,7 +6070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$H$722:$H$794</c:f>
+              <c:f>old!$H$722:$H$794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -4480,7 +6505,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4547,7 +6572,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$662:$A$770</c:f>
+              <c:f>old!$A$662:$A$770</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="109"/>
@@ -4883,7 +6908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$E$674:$E$794</c:f>
+              <c:f>old!$E$674:$E$794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
@@ -5277,7 +7302,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PSAVERT!$A$662:$A$770</c:f>
+              <c:f>old!$A$662:$A$770</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="109"/>
@@ -5613,7 +7638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PSAVERT!$F$674:$F$794</c:f>
+              <c:f>old!$F$674:$F$794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
@@ -6352,8 +8377,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6461,6 +8606,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6471,6 +8621,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6502,6 +8657,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7888,6 +10046,1541 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8407,16 +12100,129 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7BB36B-7C9E-B523-5C28-789DB6BF2A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7565734F-49DC-DF49-669C-E5E4E78460D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>747</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>764</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2208D68-54E6-3C71-CC9F-86C9ABD7BAA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>748</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8443,16 +12249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>730</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>747</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8868,14 +12674,2362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F946A9A-37E9-4564-918E-0EA43075139A}">
+  <dimension ref="A1:T100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M94" sqref="M94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42736</v>
+      </c>
+      <c r="C2">
+        <v>14373.7</v>
+      </c>
+      <c r="D2">
+        <f>40.011*A2+14379</f>
+        <v>14419.011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42767</v>
+      </c>
+      <c r="C3">
+        <v>14416.8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">40.011*A3+14379</f>
+        <v>14459.022000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42795</v>
+      </c>
+      <c r="C4">
+        <v>14476.3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14499.032999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C5">
+        <v>14509.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>14539.044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42856</v>
+      </c>
+      <c r="C6">
+        <v>14610.7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14579.055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C7">
+        <v>14618.7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>14619.066000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42917</v>
+      </c>
+      <c r="C8">
+        <v>14660.2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>14659.076999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C9">
+        <v>14678.3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>14699.088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C10">
+        <v>14706</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>14739.099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43009</v>
+      </c>
+      <c r="C11">
+        <v>14748.6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>14779.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43040</v>
+      </c>
+      <c r="C12">
+        <v>14771.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>14819.120999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43070</v>
+      </c>
+      <c r="C13">
+        <v>14797.9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>14859.132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43101</v>
+      </c>
+      <c r="C14">
+        <v>14886.6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>14899.143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C15">
+        <v>14921.1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>14939.154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C16">
+        <v>14974.8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>14979.165000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43191</v>
+      </c>
+      <c r="C17">
+        <v>15007.2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>15019.175999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43221</v>
+      </c>
+      <c r="C18">
+        <v>15057.8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>15059.187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C19">
+        <v>15119.3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>15099.198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43282</v>
+      </c>
+      <c r="C20">
+        <v>15184.7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>15139.209000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43313</v>
+      </c>
+      <c r="C21">
+        <v>15238.6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>15179.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43344</v>
+      </c>
+      <c r="C22">
+        <v>15237.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>15219.231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43374</v>
+      </c>
+      <c r="C23">
+        <v>15274.1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>15259.242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43405</v>
+      </c>
+      <c r="C24">
+        <v>15315.2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>15299.253000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43435</v>
+      </c>
+      <c r="C25">
+        <v>15506.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>15339.263999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C26">
+        <v>15536.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>15379.275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43497</v>
+      </c>
+      <c r="C27">
+        <v>15560.4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>15419.286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43525</v>
+      </c>
+      <c r="C28">
+        <v>15566.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>15459.297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C29">
+        <v>15534.2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>15499.308000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C30">
+        <v>15532.4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>15539.319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43617</v>
+      </c>
+      <c r="C31">
+        <v>15562.1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>15579.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43647</v>
+      </c>
+      <c r="C32">
+        <v>15581.4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>15619.341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C33">
+        <v>15664.3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>15659.352000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43709</v>
+      </c>
+      <c r="C34">
+        <v>15697.5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>15699.362999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43739</v>
+      </c>
+      <c r="C35">
+        <v>15718.1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>15739.374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C36">
+        <v>15766.9</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>15779.385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43800</v>
+      </c>
+      <c r="C37">
+        <v>15683.8</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>15819.396000000001</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C38">
+        <v>15857.3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>15859.406999999999</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C39">
+        <v>15916.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>15899.418</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C40">
+        <v>15704.9</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>15939.429</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C41">
+        <v>18030.2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>15979.44</v>
+      </c>
+      <c r="E41">
+        <f>D41*(1+G42)</f>
+        <v>16094.291990416688</v>
+      </c>
+      <c r="F41">
+        <v>63861</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C42">
+        <v>17114.400000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>16019.451000000001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E95" si="1">D42*(1+G43)</f>
+        <v>15708.874889972016</v>
+      </c>
+      <c r="F42">
+        <v>64320</v>
+      </c>
+      <c r="G42">
+        <f>F42/F41-1</f>
+        <v>7.1874853196787214E-3</v>
+      </c>
+      <c r="Q42">
+        <f>Q41+$T$42</f>
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <f>T40/T41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C43">
+        <v>17047.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>16059.462</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>16097.90917647805</v>
+      </c>
+      <c r="F43">
+        <v>63073</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G100" si="2">F43/F42-1</f>
+        <v>-1.9387437810945318E-2</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43:Q45" si="3">Q42+$T$42</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C44">
+        <v>17195.8</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>16099.473</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>15819.367022839428</v>
+      </c>
+      <c r="F44">
+        <v>63224</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>2.3940513373392758E-3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44044</v>
+      </c>
+      <c r="C45">
+        <v>16524.8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>16139.484</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>16118.960221170562</v>
+      </c>
+      <c r="F45">
+        <v>62124</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>-1.7398456282424424E-2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44075</v>
+      </c>
+      <c r="C46">
+        <v>16616.5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>16179.495000000001</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>16088.746925860265</v>
+      </c>
+      <c r="F46">
+        <v>62045</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>-1.2716502478913316E-3</v>
+      </c>
+      <c r="Q46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C47">
+        <v>16552.900000000001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>16219.505999999999</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>16443.750916576169</v>
+      </c>
+      <c r="F47">
+        <v>61697</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>-5.6088322991376671E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C48">
+        <v>16350.6</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>16259.517</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>16215.066521870503</v>
+      </c>
+      <c r="F48">
+        <v>62550</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1.3825631716290809E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44166</v>
+      </c>
+      <c r="C49">
+        <v>16391.2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>16299.528</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>16519.279888423989</v>
+      </c>
+      <c r="F49">
+        <v>62379</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>-2.7338129496402575E-3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C50">
+        <v>18146.5</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>16339.539000000001</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>16427.413774754827</v>
+      </c>
+      <c r="F50">
+        <v>63220</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>1.348210134821004E-2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C51">
+        <v>16633.900000000001</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>16379.55</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>16424.905582127125</v>
+      </c>
+      <c r="F51">
+        <v>63560</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>5.3780449224929416E-3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C52">
+        <v>20445.8</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>16419.561000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>16555.583470942638</v>
+      </c>
+      <c r="F52">
+        <v>63736</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>2.7690371302706573E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C53">
+        <v>17335.400000000001</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>16459.572</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>16626.565043445786</v>
+      </c>
+      <c r="F53">
+        <v>64264</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>8.2841722103677018E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C54">
+        <v>16836.3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>16499.582999999999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>16737.992773461086</v>
+      </c>
+      <c r="F54">
+        <v>64916</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>1.0145649197062179E-2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C55">
+        <v>16757.8</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>16539.594000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>16449.429177119084</v>
+      </c>
+      <c r="F55">
+        <v>65854</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>1.4449442356275766E-2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C56">
+        <v>16867.8</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>16579.605</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>17014.251641499352</v>
+      </c>
+      <c r="F56">
+        <v>65495</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>-5.4514532146869854E-3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44409</v>
+      </c>
+      <c r="C57">
+        <v>16832.400000000001</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>16619.616000000002</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>16668.081225495451</v>
+      </c>
+      <c r="F57">
+        <v>67212</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>2.6215741659668668E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C58">
+        <v>16641.8</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>16659.627</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>16768.124155426656</v>
+      </c>
+      <c r="F58">
+        <v>67408</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>2.9161459263227218E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44470</v>
+      </c>
+      <c r="C59">
+        <v>16648.099999999999</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>16699.637999999999</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>16718.34439067313</v>
+      </c>
+      <c r="F59">
+        <v>67847</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>6.5125801091858726E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44501</v>
+      </c>
+      <c r="C60">
+        <v>16598.3</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>16739.649000000001</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>16872.485753544457</v>
+      </c>
+      <c r="F60">
+        <v>67923</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>1.1201674355534319E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44531</v>
+      </c>
+      <c r="C61">
+        <v>16525.400000000001</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>16779.66</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>16892.158377786218</v>
+      </c>
+      <c r="F61">
+        <v>68462</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>7.9354563255451538E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44562</v>
+      </c>
+      <c r="C62">
+        <v>16143.2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>16819.671000000002</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>16835.289736582468</v>
+      </c>
+      <c r="F62">
+        <v>68921</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>6.7044491834886699E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44593</v>
+      </c>
+      <c r="C63">
+        <v>16143</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>16859.682000000001</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>17050.311150684931</v>
+      </c>
+      <c r="F63">
+        <v>68985</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>9.2859941091982812E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44621</v>
+      </c>
+      <c r="C64">
+        <v>16065.5</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>16899.692999999999</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>16951.77404343152</v>
+      </c>
+      <c r="F64">
+        <v>69765</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>1.1306805827353772E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C65">
+        <v>16063.7</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>16939.704000000002</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>17149.574296770505</v>
+      </c>
+      <c r="F65">
+        <v>69980</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>3.0817745287752274E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44682</v>
+      </c>
+      <c r="C66">
+        <v>16049.1</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>16979.715</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>17193.498304585941</v>
+      </c>
+      <c r="F66">
+        <v>70847</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>1.238925407259206E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44713</v>
+      </c>
+      <c r="C67">
+        <v>16015.9</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D71" si="4">40.011*A67+14379</f>
+        <v>17019.725999999999</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>16897.782020240036</v>
+      </c>
+      <c r="F67">
+        <v>71739</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>1.2590511948282979E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44743</v>
+      </c>
+      <c r="C68">
+        <v>16219.1</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>17059.737000000001</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>17149.796124071603</v>
+      </c>
+      <c r="F68">
+        <v>71225</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>-7.1648615118694581E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C69">
+        <v>16314.4</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>17099.748</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>17211.038101646624</v>
+      </c>
+      <c r="F69">
+        <v>71601</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>5.2790452790452136E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C70">
+        <v>16372.3</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>17139.758999999998</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>17317.180846531701</v>
+      </c>
+      <c r="F70">
+        <v>72067</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>6.5082889903771424E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C71">
+        <v>16424.3</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>17179.77</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>17251.732834246632</v>
+      </c>
+      <c r="F71">
+        <v>72813</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>1.0351478485298493E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44866</v>
+      </c>
+      <c r="C72">
+        <v>16436.5</v>
+      </c>
+      <c r="D72">
+        <f>(40.011-H72)*A72+14379</f>
+        <v>17219.780999999999</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>17149.59999480292</v>
+      </c>
+      <c r="F72">
+        <v>73118</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>4.1888124373394842E-3</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C73">
+        <v>16497.5</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:D100" si="5">(40.011-H73)*A73+14379</f>
+        <v>17187.792000000001</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>17057.29772478724</v>
+      </c>
+      <c r="F73">
+        <v>72969</v>
+      </c>
+      <c r="G73">
+        <f>(F73/F72-1)*2</f>
+        <v>-4.0756038184852628E-3</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C74">
+        <v>16808.5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>17208.553</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>17408.881801753781</v>
+      </c>
+      <c r="F74">
+        <v>72415</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>-7.5922652085131936E-3</v>
+      </c>
+      <c r="H74">
+        <f>H73+0.25</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44958</v>
+      </c>
+      <c r="C75">
+        <v>16879.099999999999</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>17228.813999999998</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>17132.155033689152</v>
+      </c>
+      <c r="F75">
+        <v>73258</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>1.1641234550852753E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75:H95" si="6">H74+0.25</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C76">
+        <v>16968</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>17248.575000000001</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>17187.486247546229</v>
+      </c>
+      <c r="F76">
+        <v>72847</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>-5.6103087717382927E-3</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C77">
+        <v>16983.3</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>17267.835999999999</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>17262.602529474163</v>
+      </c>
+      <c r="F77">
+        <v>72589</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>-3.5416695265418907E-3</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45047</v>
+      </c>
+      <c r="C78">
+        <v>17041.900000000001</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>17286.597000000002</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>17250.626432841374</v>
+      </c>
+      <c r="F78">
+        <v>72567</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>-3.030762236702067E-4</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45078</v>
+      </c>
+      <c r="C79">
+        <v>17050.3</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>17304.858</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>17338.07407465201</v>
+      </c>
+      <c r="F79">
+        <v>72416</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>-2.0808356415450424E-3</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45108</v>
+      </c>
+      <c r="C80">
+        <v>17061.599999999999</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>17322.618999999999</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>17462.766162194195</v>
+      </c>
+      <c r="F80">
+        <v>72555</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>1.9194653115333082E-3</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45139</v>
+      </c>
+      <c r="C81">
+        <v>17085.8</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>17339.88</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>17336.798071149271</v>
+      </c>
+      <c r="F81">
+        <v>73142</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>8.0904141685618214E-3</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45170</v>
+      </c>
+      <c r="C82">
+        <v>17101.099999999999</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>17356.641</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>17364.947997702689</v>
+      </c>
+      <c r="F82">
+        <v>73129</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>-1.7773645784913139E-4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C83">
+        <v>17152.8</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>17372.902000000002</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>17418.967592203819</v>
+      </c>
+      <c r="F83">
+        <v>73164</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>4.7860629845897229E-4</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C84">
+        <v>17229.400000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>17388.663</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>17327.033015812864</v>
+      </c>
+      <c r="F84">
+        <v>73358</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>2.6515772784430069E-3</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45261</v>
+      </c>
+      <c r="C85">
+        <v>17267.400000000001</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>17403.923999999999</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>17366.067643930066</v>
+      </c>
+      <c r="F85">
+        <v>73098</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>-3.5442623844706977E-3</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C86">
+        <v>17426.2</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>17418.685000000001</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>17407.938474478673</v>
+      </c>
+      <c r="F86">
+        <v>72939</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>-2.17516211113844E-3</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C87">
+        <v>17442.400000000001</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>17432.946</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>17537.934933163222</v>
+      </c>
+      <c r="F87">
+        <v>72894</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>-6.1695389297911074E-4</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C88">
+        <v>17486.900000000001</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>17446.707000000002</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>17580.412825944666</v>
+      </c>
+      <c r="F88">
+        <v>73333</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>6.0224435481657235E-3</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C89">
+        <v>17464.900000000001</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>17459.968000000001</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>17405.859702117872</v>
+      </c>
+      <c r="F89">
+        <v>73895</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>7.6636711985054173E-3</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C90">
+        <v>17511.099999999999</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>17472.728999999999</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>17512.57667018706</v>
+      </c>
+      <c r="F90">
+        <v>73666</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>-3.0989918127072302E-3</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C91">
+        <v>17515.599999999999</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>17484.990000000002</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>17663.54842105263</v>
+      </c>
+      <c r="F91">
+        <v>73834</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>2.280563625010279E-3</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C92">
+        <v>17505</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>17496.751</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>17409.487748914034</v>
+      </c>
+      <c r="F92">
+        <v>74588</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>1.021209740769824E-2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C93">
+        <v>17494.599999999999</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>17508.011999999999</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>17676.449002371457</v>
+      </c>
+      <c r="F93">
+        <v>74216</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>-4.9873974365849394E-3</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C94">
+        <v>17519.599999999999</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>17518.773000000001</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>17568.105191418657</v>
+      </c>
+      <c r="F94">
+        <v>74930</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>9.6205669936402227E-3</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C95">
+        <v>17568.5</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>17529.034</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>17469.080555968114</v>
+      </c>
+      <c r="F95">
+        <v>75141</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>2.8159615641265567E-3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C96">
+        <v>17592.400000000001</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>18180.044999999998</v>
+      </c>
+      <c r="E96">
+        <f>C96</f>
+        <v>17592.400000000001</v>
+      </c>
+      <c r="F96">
+        <v>74884</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>-3.4202366218176738E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C97">
+        <v>17605.8</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>18220.056</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97:E100" si="7">C97</f>
+        <v>17605.8</v>
+      </c>
+      <c r="F97">
+        <v>75651</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>1.0242508413012219E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45658</v>
+      </c>
+      <c r="C98">
+        <v>17661.400000000001</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>18260.066999999999</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="7"/>
+        <v>17661.400000000001</v>
+      </c>
+      <c r="F98">
+        <v>75837</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>2.4586588412578436E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C99">
+        <v>17756.2</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>18300.078000000001</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="7"/>
+        <v>17756.2</v>
+      </c>
+      <c r="F99">
+        <v>75997</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>2.1097880981579831E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C100" s="4">
+        <v>17836.638000000003</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>18340.089</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="7"/>
+        <v>17836.638000000003</v>
+      </c>
+      <c r="F100">
+        <v>75959</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>-5.0001973762126006E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694E3C93-90DF-40C1-B652-AE5B4F536CB7}">
   <dimension ref="A1:AB796"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B781" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B713" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D798" sqref="D798"/>
+      <selection pane="bottomRight" activeCell="H736" sqref="H736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29541,7 +35695,7 @@
         <v>15942.277142857141</v>
       </c>
       <c r="G736">
-        <f t="shared" si="24"/>
+        <f>E736-F736</f>
         <v>-237.37714285714173</v>
       </c>
       <c r="H736">
@@ -29594,7 +35748,7 @@
         <v>2062.4457142857173</v>
       </c>
       <c r="H737">
-        <f t="shared" ref="H737:H770" si="26">$K$733*(K737)+F737</f>
+        <f t="shared" ref="H737:H769" si="26">$K$733*(K737)+F737</f>
         <v>15971.698987814283</v>
       </c>
       <c r="I737" s="3">
@@ -30890,7 +37044,7 @@
         <v>16783.02285714286</v>
       </c>
       <c r="G769">
-        <f t="shared" si="24"/>
+        <f>E769-F769</f>
         <v>-285.52285714285972</v>
       </c>
       <c r="H769">
@@ -31315,7 +37469,7 @@
         <v>17442.400000000001</v>
       </c>
       <c r="I783" s="3">
-        <f t="shared" ref="I783:I796" si="30">H783/H771-1</f>
+        <f t="shared" ref="I783:I795" si="30">H783/H771-1</f>
         <v>3.3372632427084659E-2</v>
       </c>
     </row>
